--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il10rb</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.18795950678464</v>
+        <v>0.3617913333333333</v>
       </c>
       <c r="H2">
-        <v>0.18795950678464</v>
+        <v>1.085374</v>
       </c>
       <c r="I2">
-        <v>0.111487227571542</v>
+        <v>0.04578080100647625</v>
       </c>
       <c r="J2">
-        <v>0.111487227571542</v>
+        <v>0.06509043373192533</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4766862979387</v>
+        <v>18.673966</v>
       </c>
       <c r="N2">
-        <v>18.4766862979387</v>
+        <v>56.02189799999999</v>
       </c>
       <c r="O2">
-        <v>0.0888222312085649</v>
+        <v>0.08731413067222925</v>
       </c>
       <c r="P2">
-        <v>0.0888222312085649</v>
+        <v>0.08832249583235839</v>
       </c>
       <c r="Q2">
-        <v>3.472868843575073</v>
+        <v>6.756079057761331</v>
       </c>
       <c r="R2">
-        <v>3.472868843575073</v>
+        <v>60.80471151985198</v>
       </c>
       <c r="S2">
-        <v>0.009902544304161398</v>
+        <v>0.003997310841358792</v>
       </c>
       <c r="T2">
-        <v>0.009902544304161398</v>
+        <v>0.005748949562014375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.18795950678464</v>
+        <v>0.3617913333333333</v>
       </c>
       <c r="H3">
-        <v>0.18795950678464</v>
+        <v>1.085374</v>
       </c>
       <c r="I3">
-        <v>0.111487227571542</v>
+        <v>0.04578080100647625</v>
       </c>
       <c r="J3">
-        <v>0.111487227571542</v>
+        <v>0.06509043373192533</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.84421520046077</v>
+        <v>10.309642</v>
       </c>
       <c r="N3">
-        <v>9.84421520046077</v>
+        <v>30.928926</v>
       </c>
       <c r="O3">
-        <v>0.04732369995910706</v>
+        <v>0.04820494097354054</v>
       </c>
       <c r="P3">
-        <v>0.04732369995910706</v>
+        <v>0.04876164562889892</v>
       </c>
       <c r="Q3">
-        <v>1.850313833760462</v>
+        <v>3.729939125369333</v>
       </c>
       <c r="R3">
-        <v>1.850313833760462</v>
+        <v>33.569452128324</v>
       </c>
       <c r="S3">
-        <v>0.005275988106868344</v>
+        <v>0.002206860810238593</v>
       </c>
       <c r="T3">
-        <v>0.005275988106868344</v>
+        <v>0.003173916663467471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.18795950678464</v>
+        <v>0.3617913333333333</v>
       </c>
       <c r="H4">
-        <v>0.18795950678464</v>
+        <v>1.085374</v>
       </c>
       <c r="I4">
-        <v>0.111487227571542</v>
+        <v>0.04578080100647625</v>
       </c>
       <c r="J4">
-        <v>0.111487227571542</v>
+        <v>0.06509043373192533</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.9739708041881</v>
+        <v>76.40418233333334</v>
       </c>
       <c r="N4">
-        <v>71.9739708041881</v>
+        <v>229.212547</v>
       </c>
       <c r="O4">
-        <v>0.3459975762256298</v>
+        <v>0.3572441312229817</v>
       </c>
       <c r="P4">
-        <v>0.3459975762256298</v>
+        <v>0.3613698384001869</v>
       </c>
       <c r="Q4">
-        <v>13.52819205368727</v>
+        <v>27.64237099861978</v>
       </c>
       <c r="R4">
-        <v>13.52819205368727</v>
+        <v>248.781338987578</v>
       </c>
       <c r="S4">
-        <v>0.03857431051986876</v>
+        <v>0.01635492248225081</v>
       </c>
       <c r="T4">
-        <v>0.03857431051986876</v>
+        <v>0.02352171951910393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.18795950678464</v>
+        <v>0.3617913333333333</v>
       </c>
       <c r="H5">
-        <v>0.18795950678464</v>
+        <v>1.085374</v>
       </c>
       <c r="I5">
-        <v>0.111487227571542</v>
+        <v>0.04578080100647625</v>
       </c>
       <c r="J5">
-        <v>0.111487227571542</v>
+        <v>0.06509043373192533</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.698532001616</v>
+        <v>101.1580683333333</v>
       </c>
       <c r="N5">
-        <v>100.698532001616</v>
+        <v>303.474205</v>
       </c>
       <c r="O5">
-        <v>0.4840840044358198</v>
+        <v>0.4729862310452404</v>
       </c>
       <c r="P5">
-        <v>0.4840840044358198</v>
+        <v>0.4784486096194167</v>
       </c>
       <c r="Q5">
-        <v>18.92724640896103</v>
+        <v>36.59811241974111</v>
       </c>
       <c r="R5">
-        <v>18.92724640896103</v>
+        <v>329.3830117776699</v>
       </c>
       <c r="S5">
-        <v>0.05396918356627961</v>
+        <v>0.02165368852228535</v>
       </c>
       <c r="T5">
-        <v>0.05396918356627961</v>
+        <v>0.03114242751856445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.18795950678464</v>
+        <v>0.3617913333333333</v>
       </c>
       <c r="H6">
-        <v>0.18795950678464</v>
+        <v>1.085374</v>
       </c>
       <c r="I6">
-        <v>0.111487227571542</v>
+        <v>0.04578080100647625</v>
       </c>
       <c r="J6">
-        <v>0.111487227571542</v>
+        <v>0.06509043373192533</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.02530955306597</v>
+        <v>7.325205</v>
       </c>
       <c r="N6">
-        <v>7.02530955306597</v>
+        <v>14.65041</v>
       </c>
       <c r="O6">
-        <v>0.03377248817087838</v>
+        <v>0.03425056608600804</v>
       </c>
       <c r="P6">
-        <v>0.03377248817087838</v>
+        <v>0.02309741051913917</v>
       </c>
       <c r="Q6">
-        <v>1.320473718603699</v>
+        <v>2.65019568389</v>
       </c>
       <c r="R6">
-        <v>1.320473718603699</v>
+        <v>15.90117410334</v>
       </c>
       <c r="S6">
-        <v>0.003765201074363929</v>
+        <v>0.001568018350342698</v>
       </c>
       <c r="T6">
-        <v>0.003765201074363929</v>
+        <v>0.001503420468775103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.128933471797781</v>
+        <v>0.2615406666666666</v>
       </c>
       <c r="H7">
-        <v>0.128933471797781</v>
+        <v>0.7846219999999999</v>
       </c>
       <c r="I7">
-        <v>0.07647623447096044</v>
+        <v>0.03309515765745578</v>
       </c>
       <c r="J7">
-        <v>0.07647623447096044</v>
+        <v>0.04705418251737255</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4766862979387</v>
+        <v>18.673966</v>
       </c>
       <c r="N7">
-        <v>18.4766862979387</v>
+        <v>56.02189799999999</v>
       </c>
       <c r="O7">
-        <v>0.0888222312085649</v>
+        <v>0.08731413067222925</v>
       </c>
       <c r="P7">
-        <v>0.0888222312085649</v>
+        <v>0.08832249583235839</v>
       </c>
       <c r="Q7">
-        <v>2.382263311711726</v>
+        <v>4.884001516950665</v>
       </c>
       <c r="R7">
-        <v>2.382263311711726</v>
+        <v>43.95601365255599</v>
       </c>
       <c r="S7">
-        <v>0.006792789780140069</v>
+        <v>0.002889674920321123</v>
       </c>
       <c r="T7">
-        <v>0.006792789780140069</v>
+        <v>0.004155942839285668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.128933471797781</v>
+        <v>0.2615406666666666</v>
       </c>
       <c r="H8">
-        <v>0.128933471797781</v>
+        <v>0.7846219999999999</v>
       </c>
       <c r="I8">
-        <v>0.07647623447096044</v>
+        <v>0.03309515765745578</v>
       </c>
       <c r="J8">
-        <v>0.07647623447096044</v>
+        <v>0.04705418251737255</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.84421520046077</v>
+        <v>10.309642</v>
       </c>
       <c r="N8">
-        <v>9.84421520046077</v>
+        <v>30.928926</v>
       </c>
       <c r="O8">
-        <v>0.04732369995910706</v>
+        <v>0.04820494097354054</v>
       </c>
       <c r="P8">
-        <v>0.04732369995910706</v>
+        <v>0.04876164562889892</v>
       </c>
       <c r="Q8">
-        <v>1.269248842919896</v>
+        <v>2.696390641774666</v>
       </c>
       <c r="R8">
-        <v>1.269248842919896</v>
+        <v>24.267515775972</v>
       </c>
       <c r="S8">
-        <v>0.003619138374106053</v>
+        <v>0.001595350121387674</v>
       </c>
       <c r="T8">
-        <v>0.003619138374106053</v>
+        <v>0.002294439373269651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.128933471797781</v>
+        <v>0.2615406666666666</v>
       </c>
       <c r="H9">
-        <v>0.128933471797781</v>
+        <v>0.7846219999999999</v>
       </c>
       <c r="I9">
-        <v>0.07647623447096044</v>
+        <v>0.03309515765745578</v>
       </c>
       <c r="J9">
-        <v>0.07647623447096044</v>
+        <v>0.04705418251737255</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.9739708041881</v>
+        <v>76.40418233333334</v>
       </c>
       <c r="N9">
-        <v>71.9739708041881</v>
+        <v>229.212547</v>
       </c>
       <c r="O9">
-        <v>0.3459975762256298</v>
+        <v>0.3572441312229817</v>
       </c>
       <c r="P9">
-        <v>0.3459975762256298</v>
+        <v>0.3613698384001869</v>
       </c>
       <c r="Q9">
-        <v>9.279853934856099</v>
+        <v>19.98280078358156</v>
       </c>
       <c r="R9">
-        <v>9.279853934856099</v>
+        <v>179.845207052234</v>
       </c>
       <c r="S9">
-        <v>0.02646059176581527</v>
+        <v>0.0118230508450254</v>
       </c>
       <c r="T9">
-        <v>0.02646059176581527</v>
+        <v>0.01700396233235582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.128933471797781</v>
+        <v>0.2615406666666666</v>
       </c>
       <c r="H10">
-        <v>0.128933471797781</v>
+        <v>0.7846219999999999</v>
       </c>
       <c r="I10">
-        <v>0.07647623447096044</v>
+        <v>0.03309515765745578</v>
       </c>
       <c r="J10">
-        <v>0.07647623447096044</v>
+        <v>0.04705418251737255</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.698532001616</v>
+        <v>101.1580683333333</v>
       </c>
       <c r="N10">
-        <v>100.698532001616</v>
+        <v>303.474205</v>
       </c>
       <c r="O10">
-        <v>0.4840840044358198</v>
+        <v>0.4729862310452404</v>
       </c>
       <c r="P10">
-        <v>0.4840840044358198</v>
+        <v>0.4784486096194167</v>
       </c>
       <c r="Q10">
-        <v>12.9834113359083</v>
+        <v>26.45694863061222</v>
       </c>
       <c r="R10">
-        <v>12.9834113359083</v>
+        <v>238.11253767551</v>
       </c>
       <c r="S10">
-        <v>0.03702092182687521</v>
+        <v>0.01565355388624804</v>
       </c>
       <c r="T10">
-        <v>0.03702092182687521</v>
+        <v>0.02251300820221516</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.128933471797781</v>
+        <v>0.2615406666666666</v>
       </c>
       <c r="H11">
-        <v>0.128933471797781</v>
+        <v>0.7846219999999999</v>
       </c>
       <c r="I11">
-        <v>0.07647623447096044</v>
+        <v>0.03309515765745578</v>
       </c>
       <c r="J11">
-        <v>0.07647623447096044</v>
+        <v>0.04705418251737255</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.02530955306597</v>
+        <v>7.325205</v>
       </c>
       <c r="N11">
-        <v>7.02530955306597</v>
+        <v>14.65041</v>
       </c>
       <c r="O11">
-        <v>0.03377248817087838</v>
+        <v>0.03425056608600804</v>
       </c>
       <c r="P11">
-        <v>0.03377248817087838</v>
+        <v>0.02309741051913917</v>
       </c>
       <c r="Q11">
-        <v>0.9057975511309126</v>
+        <v>1.91583899917</v>
       </c>
       <c r="R11">
-        <v>0.9057975511309126</v>
+        <v>11.49503399502</v>
       </c>
       <c r="S11">
-        <v>0.002582792724023833</v>
+        <v>0.001133527884473544</v>
       </c>
       <c r="T11">
-        <v>0.002582792724023833</v>
+        <v>0.001086829770246255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0434382702836885</v>
+        <v>0.091943</v>
       </c>
       <c r="H12">
-        <v>0.0434382702836885</v>
+        <v>0.275829</v>
       </c>
       <c r="I12">
-        <v>0.02576518957341447</v>
+        <v>0.01163439750796992</v>
       </c>
       <c r="J12">
-        <v>0.02576518957341447</v>
+        <v>0.01654160616141831</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.4766862979387</v>
+        <v>18.673966</v>
       </c>
       <c r="N12">
-        <v>18.4766862979387</v>
+        <v>56.02189799999999</v>
       </c>
       <c r="O12">
-        <v>0.0888222312085649</v>
+        <v>0.08731413067222925</v>
       </c>
       <c r="P12">
-        <v>0.0888222312085649</v>
+        <v>0.08832249583235839</v>
       </c>
       <c r="Q12">
-        <v>0.802595293356785</v>
+        <v>1.716940455938</v>
       </c>
       <c r="R12">
-        <v>0.802595293356785</v>
+        <v>15.452464103442</v>
       </c>
       <c r="S12">
-        <v>0.002288521625422325</v>
+        <v>0.001015847304303544</v>
       </c>
       <c r="T12">
-        <v>0.002288521625422325</v>
+        <v>0.001460995941252382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0434382702836885</v>
+        <v>0.091943</v>
       </c>
       <c r="H13">
-        <v>0.0434382702836885</v>
+        <v>0.275829</v>
       </c>
       <c r="I13">
-        <v>0.02576518957341447</v>
+        <v>0.01163439750796992</v>
       </c>
       <c r="J13">
-        <v>0.02576518957341447</v>
+        <v>0.01654160616141831</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.84421520046077</v>
+        <v>10.309642</v>
       </c>
       <c r="N13">
-        <v>9.84421520046077</v>
+        <v>30.928926</v>
       </c>
       <c r="O13">
-        <v>0.04732369995910706</v>
+        <v>0.04820494097354054</v>
       </c>
       <c r="P13">
-        <v>0.04732369995910706</v>
+        <v>0.04876164562889892</v>
       </c>
       <c r="Q13">
-        <v>0.4276156806084097</v>
+        <v>0.9478994144059998</v>
       </c>
       <c r="R13">
-        <v>0.4276156806084097</v>
+        <v>8.531094729653999</v>
       </c>
       <c r="S13">
-        <v>0.00121930410076178</v>
+        <v>0.000560835445134397</v>
       </c>
       <c r="T13">
-        <v>0.00121930410076178</v>
+        <v>0.0008065959377758904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0434382702836885</v>
+        <v>0.091943</v>
       </c>
       <c r="H14">
-        <v>0.0434382702836885</v>
+        <v>0.275829</v>
       </c>
       <c r="I14">
-        <v>0.02576518957341447</v>
+        <v>0.01163439750796992</v>
       </c>
       <c r="J14">
-        <v>0.02576518957341447</v>
+        <v>0.01654160616141831</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.9739708041881</v>
+        <v>76.40418233333334</v>
       </c>
       <c r="N14">
-        <v>71.9739708041881</v>
+        <v>229.212547</v>
       </c>
       <c r="O14">
-        <v>0.3459975762256298</v>
+        <v>0.3572441312229817</v>
       </c>
       <c r="P14">
-        <v>0.3459975762256298</v>
+        <v>0.3613698384001869</v>
       </c>
       <c r="Q14">
-        <v>3.126424797182628</v>
+        <v>7.024829736273666</v>
       </c>
       <c r="R14">
-        <v>3.126424797182628</v>
+        <v>63.223467626463</v>
       </c>
       <c r="S14">
-        <v>0.008914693143395274</v>
+        <v>0.004156320230037535</v>
       </c>
       <c r="T14">
-        <v>0.008914693143395274</v>
+        <v>0.00597763754543127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0434382702836885</v>
+        <v>0.091943</v>
       </c>
       <c r="H15">
-        <v>0.0434382702836885</v>
+        <v>0.275829</v>
       </c>
       <c r="I15">
-        <v>0.02576518957341447</v>
+        <v>0.01163439750796992</v>
       </c>
       <c r="J15">
-        <v>0.02576518957341447</v>
+        <v>0.01654160616141831</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>100.698532001616</v>
+        <v>101.1580683333333</v>
       </c>
       <c r="N15">
-        <v>100.698532001616</v>
+        <v>303.474205</v>
       </c>
       <c r="O15">
-        <v>0.4840840044358198</v>
+        <v>0.4729862310452404</v>
       </c>
       <c r="P15">
-        <v>0.4840840044358198</v>
+        <v>0.4784486096194167</v>
       </c>
       <c r="Q15">
-        <v>4.374170050256851</v>
+        <v>9.300776276771666</v>
       </c>
       <c r="R15">
-        <v>4.374170050256851</v>
+        <v>83.706986490945</v>
       </c>
       <c r="S15">
-        <v>0.01247251614374651</v>
+        <v>0.005502909827776827</v>
       </c>
       <c r="T15">
-        <v>0.01247251614374651</v>
+        <v>0.007914308468802565</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0434382702836885</v>
+        <v>0.091943</v>
       </c>
       <c r="H16">
-        <v>0.0434382702836885</v>
+        <v>0.275829</v>
       </c>
       <c r="I16">
-        <v>0.02576518957341447</v>
+        <v>0.01163439750796992</v>
       </c>
       <c r="J16">
-        <v>0.02576518957341447</v>
+        <v>0.01654160616141831</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.02530955306597</v>
+        <v>7.325205</v>
       </c>
       <c r="N16">
-        <v>7.02530955306597</v>
+        <v>14.65041</v>
       </c>
       <c r="O16">
-        <v>0.03377248817087838</v>
+        <v>0.03425056608600804</v>
       </c>
       <c r="P16">
-        <v>0.03377248817087838</v>
+        <v>0.02309741051913917</v>
       </c>
       <c r="Q16">
-        <v>0.3051672951926584</v>
+        <v>0.673501323315</v>
       </c>
       <c r="R16">
-        <v>0.3051672951926584</v>
+        <v>4.04100793989</v>
       </c>
       <c r="S16">
-        <v>0.000870154560088579</v>
+        <v>0.0003984847007176108</v>
       </c>
       <c r="T16">
-        <v>0.000870154560088579</v>
+        <v>0.0003820682681562006</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.32559736267843</v>
+        <v>0.1542133333333333</v>
       </c>
       <c r="H17">
-        <v>1.32559736267843</v>
+        <v>0.46264</v>
       </c>
       <c r="I17">
-        <v>0.7862713483840831</v>
+        <v>0.01951403827402921</v>
       </c>
       <c r="J17">
-        <v>0.7862713483840831</v>
+        <v>0.02774475734791688</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.4766862979387</v>
+        <v>18.673966</v>
       </c>
       <c r="N17">
-        <v>18.4766862979387</v>
+        <v>56.02189799999999</v>
       </c>
       <c r="O17">
-        <v>0.0888222312085649</v>
+        <v>0.08731413067222925</v>
       </c>
       <c r="P17">
-        <v>0.0888222312085649</v>
+        <v>0.08832249583235839</v>
       </c>
       <c r="Q17">
-        <v>24.49264662758423</v>
+        <v>2.879774543413333</v>
       </c>
       <c r="R17">
-        <v>24.49264662758423</v>
+        <v>25.91797089072</v>
       </c>
       <c r="S17">
-        <v>0.06983837549884112</v>
+        <v>0.001703851287801469</v>
       </c>
       <c r="T17">
-        <v>0.06983837549884112</v>
+        <v>0.002450486215231184</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.32559736267843</v>
+        <v>0.1542133333333333</v>
       </c>
       <c r="H18">
-        <v>1.32559736267843</v>
+        <v>0.46264</v>
       </c>
       <c r="I18">
-        <v>0.7862713483840831</v>
+        <v>0.01951403827402921</v>
       </c>
       <c r="J18">
-        <v>0.7862713483840831</v>
+        <v>0.02774475734791688</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.84421520046077</v>
+        <v>10.309642</v>
       </c>
       <c r="N18">
-        <v>9.84421520046077</v>
+        <v>30.928926</v>
       </c>
       <c r="O18">
-        <v>0.04732369995910706</v>
+        <v>0.04820494097354054</v>
       </c>
       <c r="P18">
-        <v>0.04732369995910706</v>
+        <v>0.04876164562889892</v>
       </c>
       <c r="Q18">
-        <v>13.04946570736971</v>
+        <v>1.589884258293333</v>
       </c>
       <c r="R18">
-        <v>13.04946570736971</v>
+        <v>14.30895832464</v>
       </c>
       <c r="S18">
-        <v>0.03720926937737089</v>
+        <v>0.0009406730631549889</v>
       </c>
       <c r="T18">
-        <v>0.03720926937737089</v>
+        <v>0.001352880025858912</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.32559736267843</v>
+        <v>0.1542133333333333</v>
       </c>
       <c r="H19">
-        <v>1.32559736267843</v>
+        <v>0.46264</v>
       </c>
       <c r="I19">
-        <v>0.7862713483840831</v>
+        <v>0.01951403827402921</v>
       </c>
       <c r="J19">
-        <v>0.7862713483840831</v>
+        <v>0.02774475734791688</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.9739708041881</v>
+        <v>76.40418233333334</v>
       </c>
       <c r="N19">
-        <v>71.9739708041881</v>
+        <v>229.212547</v>
       </c>
       <c r="O19">
-        <v>0.3459975762256298</v>
+        <v>0.3572441312229817</v>
       </c>
       <c r="P19">
-        <v>0.3459975762256298</v>
+        <v>0.3613698384001869</v>
       </c>
       <c r="Q19">
-        <v>95.40850587952607</v>
+        <v>11.78254363823111</v>
       </c>
       <c r="R19">
-        <v>95.40850587952607</v>
+        <v>106.04289274408</v>
       </c>
       <c r="S19">
-        <v>0.2720479807965505</v>
+        <v>0.006971275649857576</v>
       </c>
       <c r="T19">
-        <v>0.2720479807965505</v>
+        <v>0.01002611847926912</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.32559736267843</v>
+        <v>0.1542133333333333</v>
       </c>
       <c r="H20">
-        <v>1.32559736267843</v>
+        <v>0.46264</v>
       </c>
       <c r="I20">
-        <v>0.7862713483840831</v>
+        <v>0.01951403827402921</v>
       </c>
       <c r="J20">
-        <v>0.7862713483840831</v>
+        <v>0.02774475734791688</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>100.698532001616</v>
+        <v>101.1580683333333</v>
       </c>
       <c r="N20">
-        <v>100.698532001616</v>
+        <v>303.474205</v>
       </c>
       <c r="O20">
-        <v>0.4840840044358198</v>
+        <v>0.4729862310452404</v>
       </c>
       <c r="P20">
-        <v>0.4840840044358198</v>
+        <v>0.4784486096194167</v>
       </c>
       <c r="Q20">
-        <v>133.4857084469317</v>
+        <v>15.59992291124444</v>
       </c>
       <c r="R20">
-        <v>133.4857084469317</v>
+        <v>140.3993062012</v>
       </c>
       <c r="S20">
-        <v>0.3806213828989184</v>
+        <v>0.009229871415705642</v>
       </c>
       <c r="T20">
-        <v>0.3806213828989184</v>
+        <v>0.01327444057733893</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1542133333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.46264</v>
+      </c>
+      <c r="I21">
+        <v>0.01951403827402921</v>
+      </c>
+      <c r="J21">
+        <v>0.02774475734791688</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.325205</v>
+      </c>
+      <c r="N21">
+        <v>14.65041</v>
+      </c>
+      <c r="O21">
+        <v>0.03425056608600804</v>
+      </c>
+      <c r="P21">
+        <v>0.02309741051913917</v>
+      </c>
+      <c r="Q21">
+        <v>1.1296442804</v>
+      </c>
+      <c r="R21">
+        <v>6.777865682400001</v>
+      </c>
+      <c r="S21">
+        <v>0.0006683668575095276</v>
+      </c>
+      <c r="T21">
+        <v>0.0006408320502187392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.0331985</v>
+      </c>
+      <c r="H22">
+        <v>14.066397</v>
+      </c>
+      <c r="I22">
+        <v>0.8899756055540688</v>
+      </c>
+      <c r="J22">
+        <v>0.8435690202413669</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.673966</v>
+      </c>
+      <c r="N22">
+        <v>56.02189799999999</v>
+      </c>
+      <c r="O22">
+        <v>0.08731413067222925</v>
+      </c>
+      <c r="P22">
+        <v>0.08832249583235839</v>
+      </c>
+      <c r="Q22">
+        <v>131.337709660251</v>
+      </c>
+      <c r="R22">
+        <v>788.026257961506</v>
+      </c>
+      <c r="S22">
+        <v>0.07770744631844433</v>
+      </c>
+      <c r="T22">
+        <v>0.07450612127457479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.0331985</v>
+      </c>
+      <c r="H23">
+        <v>14.066397</v>
+      </c>
+      <c r="I23">
+        <v>0.8899756055540688</v>
+      </c>
+      <c r="J23">
+        <v>0.8435690202413669</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.309642</v>
+      </c>
+      <c r="N23">
+        <v>30.928926</v>
+      </c>
+      <c r="O23">
+        <v>0.04820494097354054</v>
+      </c>
+      <c r="P23">
+        <v>0.04876164562889892</v>
+      </c>
+      <c r="Q23">
+        <v>72.50975864993698</v>
+      </c>
+      <c r="R23">
+        <v>435.058551899622</v>
+      </c>
+      <c r="S23">
+        <v>0.04290122153362489</v>
+      </c>
+      <c r="T23">
+        <v>0.04113381362852699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.0331985</v>
+      </c>
+      <c r="H24">
+        <v>14.066397</v>
+      </c>
+      <c r="I24">
+        <v>0.8899756055540688</v>
+      </c>
+      <c r="J24">
+        <v>0.8435690202413669</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>76.40418233333334</v>
+      </c>
+      <c r="N24">
+        <v>229.212547</v>
+      </c>
+      <c r="O24">
+        <v>0.3572441312229817</v>
+      </c>
+      <c r="P24">
+        <v>0.3613698384001869</v>
+      </c>
+      <c r="Q24">
+        <v>537.3657805805266</v>
+      </c>
+      <c r="R24">
+        <v>3224.194683483159</v>
+      </c>
+      <c r="S24">
+        <v>0.3179385620158103</v>
+      </c>
+      <c r="T24">
+        <v>0.3048404005240268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.32559736267843</v>
-      </c>
-      <c r="H21">
-        <v>1.32559736267843</v>
-      </c>
-      <c r="I21">
-        <v>0.7862713483840831</v>
-      </c>
-      <c r="J21">
-        <v>0.7862713483840831</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.02530955306597</v>
-      </c>
-      <c r="N21">
-        <v>7.02530955306597</v>
-      </c>
-      <c r="O21">
-        <v>0.03377248817087838</v>
-      </c>
-      <c r="P21">
-        <v>0.03377248817087838</v>
-      </c>
-      <c r="Q21">
-        <v>9.312731815543831</v>
-      </c>
-      <c r="R21">
-        <v>9.312731815543831</v>
-      </c>
-      <c r="S21">
-        <v>0.02655433981240204</v>
-      </c>
-      <c r="T21">
-        <v>0.02655433981240204</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.0331985</v>
+      </c>
+      <c r="H25">
+        <v>14.066397</v>
+      </c>
+      <c r="I25">
+        <v>0.8899756055540688</v>
+      </c>
+      <c r="J25">
+        <v>0.8435690202413669</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>101.1580683333333</v>
+      </c>
+      <c r="N25">
+        <v>303.474205</v>
+      </c>
+      <c r="O25">
+        <v>0.4729862310452404</v>
+      </c>
+      <c r="P25">
+        <v>0.4784486096194167</v>
+      </c>
+      <c r="Q25">
+        <v>711.4647744648975</v>
+      </c>
+      <c r="R25">
+        <v>4268.788646789385</v>
+      </c>
+      <c r="S25">
+        <v>0.4209462073932245</v>
+      </c>
+      <c r="T25">
+        <v>0.4036044248524955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.0331985</v>
+      </c>
+      <c r="H26">
+        <v>14.066397</v>
+      </c>
+      <c r="I26">
+        <v>0.8899756055540688</v>
+      </c>
+      <c r="J26">
+        <v>0.8435690202413669</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.325205</v>
+      </c>
+      <c r="N26">
+        <v>14.65041</v>
+      </c>
+      <c r="O26">
+        <v>0.03425056608600804</v>
+      </c>
+      <c r="P26">
+        <v>0.02309741051913917</v>
+      </c>
+      <c r="Q26">
+        <v>51.51962081819251</v>
+      </c>
+      <c r="R26">
+        <v>206.07848327277</v>
+      </c>
+      <c r="S26">
+        <v>0.03048216829296466</v>
+      </c>
+      <c r="T26">
+        <v>0.01948425996174288</v>
       </c>
     </row>
   </sheetData>
